--- a/biology/Histoire de la zoologie et de la botanique/William_Louis_Stern/William_Louis_Stern.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Louis_Stern/William_Louis_Stern.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Louis Stern (né le 10 septembre 1926 à Paterson dans le New Jersey et mort le 1er novembre 2021[1], est un botaniste américain, spécialiste de l'anatomie du bois.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Louis Stern (né le 10 septembre 1926 à Paterson dans le New Jersey et mort le 1er novembre 2021, est un botaniste américain, spécialiste de l'anatomie du bois.
 Il est l'auteur de l’Index Xylariorum, répertoire mondial des xylothèques institutionnelles.
 </t>
         </is>
